--- a/DwellScanningEyeTrack/img_training/Week5/map2.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week5/map2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1103,16 +1100,16 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -1121,16 +1118,16 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -1139,13 +1136,13 @@
         <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
         <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1162,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1174,16 +1171,16 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>24</v>
@@ -1192,22 +1189,22 @@
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
         <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1227,10 +1224,10 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -1245,16 +1242,16 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
         <v>24</v>
@@ -1266,7 +1263,7 @@
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
         <v>23</v>
@@ -1286,22 +1283,22 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -1313,19 +1310,19 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" t="s">
         <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
         <v>23</v>
@@ -1351,16 +1348,16 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -1381,16 +1378,16 @@
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
         <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U6" t="s">
         <v>23</v>
@@ -1416,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
@@ -1428,19 +1425,19 @@
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -1472,10 +1469,10 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1484,40 +1481,40 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1534,10 +1531,10 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -1555,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
@@ -1567,7 +1564,7 @@
         <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
         <v>23</v>
@@ -1576,10 +1573,10 @@
         <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1599,13 +1596,13 @@
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1614,16 +1611,16 @@
         <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -1635,10 +1632,10 @@
         <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
         <v>24</v>
@@ -1661,7 +1658,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -1676,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
         <v>23</v>
@@ -1685,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
@@ -1697,13 +1694,13 @@
         <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1723,43 +1720,43 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T12" t="s">
         <v>23</v>
@@ -1788,19 +1785,19 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -1809,25 +1806,25 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
         <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13" t="s">
         <v>24</v>
       </c>
       <c r="U13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1859,31 +1856,31 @@
         <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T14" t="s">
         <v>24</v>
@@ -1906,16 +1903,16 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -1924,10 +1921,10 @@
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s">
         <v>23</v>
@@ -1936,22 +1933,22 @@
         <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
         <v>24</v>
       </c>
       <c r="T15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1980,7 +1977,7 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
         <v>24</v>
@@ -1989,22 +1986,22 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S16" t="s">
         <v>23</v>
@@ -2030,7 +2027,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -2039,16 +2036,16 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
         <v>23</v>
@@ -2057,25 +2054,25 @@
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
         <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2092,16 +2089,16 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -2113,16 +2110,16 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
         <v>23</v>
@@ -2134,7 +2131,7 @@
         <v>24</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U18" t="s">
         <v>24</v>
@@ -2157,13 +2154,13 @@
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2175,7 +2172,7 @@
         <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
         <v>24</v>
@@ -2193,13 +2190,13 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T19" t="s">
         <v>23</v>
       </c>
       <c r="U19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2216,40 +2213,40 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
         <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O20" t="s">
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R20" t="s">
         <v>23</v>
@@ -2258,10 +2255,10 @@
         <v>23</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2287,16 +2284,16 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
@@ -2305,13 +2302,13 @@
         <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
         <v>23</v>
@@ -2340,28 +2337,28 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -2376,13 +2373,13 @@
         <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U22" t="s">
         <v>23</v>
@@ -2402,13 +2399,13 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -2423,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
@@ -2435,13 +2432,13 @@
         <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R23" t="s">
         <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T23" t="s">
         <v>23</v>
@@ -2464,40 +2461,40 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R24" t="s">
         <v>24</v>
@@ -2506,10 +2503,10 @@
         <v>23</v>
       </c>
       <c r="T24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2526,13 +2523,13 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
@@ -2541,25 +2538,25 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R25" t="s">
         <v>23</v>
@@ -2568,10 +2565,10 @@
         <v>23</v>
       </c>
       <c r="T25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2591,22 +2588,22 @@
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
         <v>24</v>
@@ -2615,7 +2612,7 @@
         <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P26" t="s">
         <v>24</v>
@@ -2630,7 +2627,7 @@
         <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U26" t="s">
         <v>24</v>
@@ -2659,13 +2656,13 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
         <v>24</v>
@@ -2674,16 +2671,16 @@
         <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
         <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R27" t="s">
         <v>24</v>
@@ -2695,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="U27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2712,7 +2709,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -2727,31 +2724,31 @@
         <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" t="s">
         <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R28" t="s">
         <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T28" t="s">
         <v>23</v>
@@ -2777,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
@@ -2792,34 +2789,34 @@
         <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29" t="s">
         <v>23</v>
       </c>
       <c r="Q29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R29" t="s">
         <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T29" t="s">
         <v>24</v>
       </c>
       <c r="U29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2836,7 +2833,7 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -2845,43 +2842,43 @@
         <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N30" t="s">
         <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R30" t="s">
         <v>23</v>
       </c>
       <c r="S30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T30" t="s">
         <v>23</v>
       </c>
       <c r="U30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2907,10 +2904,10 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
         <v>24</v>
@@ -2919,10 +2916,10 @@
         <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
         <v>23</v>
@@ -2931,10 +2928,10 @@
         <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S31" t="s">
         <v>23</v>
